--- a/src/utils/sxsyzlzq/shijiesai/第5次_4强表格.xlsx
+++ b/src/utils/sxsyzlzq/shijiesai/第5次_4强表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" activeTab="3"/>
+    <workbookView windowWidth="13320" windowHeight="12795" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="四强英雄出场率" sheetId="1" r:id="rId1"/>
@@ -2818,8 +2818,8 @@
   <sheetPr/>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
@@ -2863,11 +2863,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <f>SUM(C2,D2)</f>
+        <f t="shared" ref="E2:E30" si="0">SUM(C2,D2)</f>
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <f>C2/E2</f>
+        <f t="shared" ref="F2:F30" si="1">C2/E2</f>
         <v>1</v>
       </c>
     </row>
@@ -2885,11 +2885,11 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f>SUM(C3,D3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <f>C3/E3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2907,11 +2907,11 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f>SUM(C4,D4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <f>C4/E4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2929,11 +2929,11 @@
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <f>SUM(C5,D5)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F5" s="4">
-        <f>C5/E5</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
@@ -2951,11 +2951,11 @@
         <v>1</v>
       </c>
       <c r="E6" s="3">
-        <f>SUM(C6,D6)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F6" s="4">
-        <f>C6/E6</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
     </row>
@@ -2973,11 +2973,11 @@
         <v>10</v>
       </c>
       <c r="E7" s="3">
-        <f>SUM(C7,D7)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="F7" s="4">
-        <f>C7/E7</f>
+        <f t="shared" si="1"/>
         <v>0.655172413793103</v>
       </c>
     </row>
@@ -2995,11 +2995,11 @@
         <v>28</v>
       </c>
       <c r="E8" s="1">
-        <f>SUM(C8,D8)</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="F8" s="2">
-        <f>C8/E8</f>
+        <f t="shared" si="1"/>
         <v>0.588235294117647</v>
       </c>
     </row>
@@ -3017,11 +3017,11 @@
         <v>10</v>
       </c>
       <c r="E9" s="1">
-        <f>SUM(C9,D9)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="F9" s="2">
-        <f>C9/E9</f>
+        <f t="shared" si="1"/>
         <v>0.565217391304348</v>
       </c>
     </row>
@@ -3039,11 +3039,11 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <f>SUM(C10,D10)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F10" s="5">
-        <f>C10/E10</f>
+        <f t="shared" si="1"/>
         <v>0.538461538461538</v>
       </c>
     </row>
@@ -3061,11 +3061,11 @@
         <v>13</v>
       </c>
       <c r="E11" s="1">
-        <f>SUM(C11,D11)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="F11" s="2">
-        <f>C11/E11</f>
+        <f t="shared" si="1"/>
         <v>0.535714285714286</v>
       </c>
     </row>
@@ -3083,11 +3083,11 @@
         <v>19</v>
       </c>
       <c r="E12">
-        <f>SUM(C12,D12)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="F12" s="5">
-        <f>C12/E12</f>
+        <f t="shared" si="1"/>
         <v>0.512820512820513</v>
       </c>
     </row>
@@ -3105,11 +3105,11 @@
         <v>12</v>
       </c>
       <c r="E13" s="1">
-        <f>SUM(C13,D13)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F13" s="2">
-        <f>C13/E13</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3127,11 +3127,11 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <f>SUM(C14,D14)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F14" s="5">
-        <f>C14/E14</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3149,11 +3149,11 @@
         <v>3</v>
       </c>
       <c r="E15" s="1">
-        <f>SUM(C15,D15)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F15" s="2">
-        <f>C15/E15</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3171,11 +3171,11 @@
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <f>SUM(C16,D16)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F16" s="2">
-        <f>C16/E16</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3193,11 +3193,11 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <f>SUM(C17,D17)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F17" s="5">
-        <f>C17/E17</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3215,11 +3215,11 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f>SUM(C18,D18)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F18" s="2">
-        <f>C18/E18</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3237,11 +3237,11 @@
         <v>18</v>
       </c>
       <c r="E19" s="1">
-        <f>SUM(C19,D19)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="F19" s="2">
-        <f>C19/E19</f>
+        <f t="shared" si="1"/>
         <v>0.419354838709677</v>
       </c>
     </row>
@@ -3259,11 +3259,11 @@
         <v>10</v>
       </c>
       <c r="E20" s="1">
-        <f>SUM(C20,D20)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="F20" s="2">
-        <f>C20/E20</f>
+        <f t="shared" si="1"/>
         <v>0.411764705882353</v>
       </c>
     </row>
@@ -3281,11 +3281,11 @@
         <v>13</v>
       </c>
       <c r="E21" s="1">
-        <f>SUM(C21,D21)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="F21" s="2">
-        <f>C21/E21</f>
+        <f t="shared" si="1"/>
         <v>0.409090909090909</v>
       </c>
     </row>
@@ -3303,11 +3303,11 @@
         <v>14</v>
       </c>
       <c r="E22" s="6">
-        <f>SUM(C22,D22)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="F22" s="7">
-        <f>C22/E22</f>
+        <f t="shared" si="1"/>
         <v>0.333333333333333</v>
       </c>
     </row>
@@ -3325,11 +3325,11 @@
         <v>8</v>
       </c>
       <c r="E23" s="6">
-        <f>SUM(C23,D23)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F23" s="7">
-        <f>C23/E23</f>
+        <f t="shared" si="1"/>
         <v>0.333333333333333</v>
       </c>
     </row>
@@ -3347,11 +3347,11 @@
         <v>5</v>
       </c>
       <c r="E24" s="6">
-        <f>SUM(C24,D24)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F24" s="7">
-        <f>C24/E24</f>
+        <f t="shared" si="1"/>
         <v>0.285714285714286</v>
       </c>
     </row>
@@ -3369,11 +3369,11 @@
         <v>3</v>
       </c>
       <c r="E25" s="6">
-        <f>SUM(C25,D25)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F25" s="7">
-        <f>C25/E25</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
     </row>
@@ -3391,11 +3391,11 @@
         <v>2</v>
       </c>
       <c r="E26" s="1">
-        <f>SUM(C26,D26)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F26" s="2">
-        <f>C26/E26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3413,11 +3413,11 @@
         <v>2</v>
       </c>
       <c r="E27" s="1">
-        <f>SUM(C27,D27)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F27" s="2">
-        <f>C27/E27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3435,11 +3435,11 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <f>SUM(C28,D28)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F28" s="2">
-        <f>C28/E28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3457,11 +3457,11 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <f>SUM(C29,D29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F29" s="2">
-        <f>C29/E29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3479,11 +3479,11 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <f>SUM(C30,D30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F30" s="2">
-        <f>C30/E30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
